--- a/IceCreamFaves.xlsx
+++ b/IceCreamFaves.xlsx
@@ -1,29 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28209"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/dev/bootcamp/DataViz-Lesson-Plans/01-Lesson-Plans/01-Excel/3/Activities/01-Stu_IceCreamFaves/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shui/Desktop/1.2/UT-TOR-DATA-PT-01-2020-U-C-master/01-Excel/3/01-Ins_GitHub/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2BA247-4765-2341-AC73-34628EF4F365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="1700" windowWidth="14620" windowHeight="14080"/>
+    <workbookView xWindow="40" yWindow="1700" windowWidth="25560" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$A$2:$A$11</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -77,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,16 +210,2261 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Faves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Butter Pecan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mint</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rainbow Sherbert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vanilla</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Strawberry</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rocky Road</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chocolate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cookie Dough</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Neapolitan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-05D6-4345-A9DB-221783DE0378}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="955647615"/>
+        <c:axId val="955649247"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="955647615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="955649247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="955649247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="955647615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Faves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Butter Pecan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mint</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rainbow Sherbert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vanilla</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Strawberry</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rocky Road</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chocolate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cookie Dough</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Neapolitan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0987-A64E-A5B2-DDC06FED9C0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Butter Pecan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mint</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Rainbow Sherbert</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Vanilla</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Strawberry</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Rocky Road</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Chocolate</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Cookie Dough</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Coffee</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Neapolitan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11166666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.8333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0987-A64E-A5B2-DDC06FED9C0B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill>
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="74000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="83000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="45000"/>
+            <a:lumOff val="55000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="accent1">
+            <a:lumMod val="30000"/>
+            <a:lumOff val="70000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:lin ang="5400000" scaled="1"/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>908050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61E6C04B-E2C0-E943-B5CB-DC66CBC0DBB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001110C5-CC89-2746-A073-3FE2E4E9432D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:C11"/>
-  <sortState ref="A2:C11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
     <sortCondition descending="1" ref="C1:C11"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Flavor"/>
-    <tableColumn id="2" name="Number of Faves"/>
-    <tableColumn id="3" name="Percentage of Total" dataDxfId="0" dataCellStyle="Percent">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Flavor"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Number of Faves"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Percentage of Total" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula>B2/$A$15</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -497,11 +2768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -658,8 +2929,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>